--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Freight (US$ div dmt).xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/Freight (US$ div dmt).xlsx
@@ -484,40 +484,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.1331843000175</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2112332161724</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0142485051643</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.6077155994081</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17.0541280371962</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.0541280371962</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>17.1096482729034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -527,40 +527,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0300729108862</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5211137722436</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>17.5301520352052</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.128765589204</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.6015232452018</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.6015232452018</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6648518590877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -569,42 +569,18 @@
           <t>Weipa</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10.5475288945631</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.292508748113621</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.76429976616739</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.58927504786007</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.79014696539549</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,40 +589,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.51962106098253</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.73710775889946</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.89075159089221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7.79463063770945</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.96064988186235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -656,40 +632,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -699,40 +675,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.7393106953498</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5308407324035</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1335792625328</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7129364699197</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.8412995587074</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.7457764990328</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>15.6502534393582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -742,40 +718,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.606181253643371</v>
+        <v>7.68</v>
       </c>
       <c r="C8" t="n">
-        <v>7.64713090032025</v>
+        <v>6.14</v>
       </c>
       <c r="D8" t="n">
-        <v>9.881118538599891</v>
+        <v>7.06</v>
       </c>
       <c r="E8" t="n">
-        <v>9.626228563393621</v>
+        <v>7.51</v>
       </c>
       <c r="F8" t="n">
-        <v>9.663739194621289</v>
+        <v>7.63</v>
       </c>
       <c r="G8" t="n">
-        <v>9.6037215957511</v>
+        <v>7.76</v>
       </c>
       <c r="H8" t="n">
-        <v>9.5437039968809</v>
+        <v>7.9</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5437039968809</v>
+        <v>8.08</v>
       </c>
       <c r="J8" t="n">
-        <v>9.5437039968809</v>
+        <v>8.08</v>
       </c>
       <c r="K8" t="n">
-        <v>9.5437039968809</v>
+        <v>8.08</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5437039968809</v>
+        <v>8.08</v>
       </c>
       <c r="M8" t="n">
-        <v>9.5437039968809</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="9">
@@ -785,40 +761,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -827,42 +803,18 @@
           <t>Kuantan &amp; Johor</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11.8365406520317</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.335968978009181</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.2124006326399</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.8856753040167</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11.913509213168</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11.8358411085023</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.7581730038366</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.7581730038366</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.7581730038366</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.7581730038366</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11.7581730038366</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11.7581730038366</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -871,40 +823,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.4934509051263</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1203315228413</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3242120126514</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0272412653559</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14.3343271152054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -914,40 +866,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.2164427120941</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7026245567009</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>23.4503084624162</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2668411473297</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.8944771319429</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.8944771319429</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>24.9813253632646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -957,40 +909,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.5783423777911</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>30.1957959748406</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>37.3918909344458</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.3928378552678</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.6950698519614</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.5042524609797</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>36.313435069998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1000,40 +952,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.692421224449</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3477218542733</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>32.463608865288</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>31.5004515475236</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>31.8356067768029</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>31.6456745551707</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>31.4557423335384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1043,40 +995,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.6589175474346</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>22.5337667303057</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>21.1120582156293</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>21.6878227455349</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.1425019747794</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>22.1425019747794</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.2034125839537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1086,40 +1038,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1129,40 +1081,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.8626969129309</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>15.3971585125584</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17.3903360220059</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>17.9842608522248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>18.453465458098</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.453465458098</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>18.5162910905051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1172,40 +1124,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.5010211540811</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>10.712855341579</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.8793789188443</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.5123274768419</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>13.5864735599527</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>13.5017775865722</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>13.4170816131916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1215,40 +1167,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.444080618701</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>8.292508748113621</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.76429976616739</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.58927504786007</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.79014696539549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1258,40 +1210,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.7156341982395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.409259111172631</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.917687731187581</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.73720896293508</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.93808088047051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1301,40 +1253,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.2959998172508</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.48751548332634</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.26610251528838</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>7.5128086458014</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7.65250640360976</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.65250640360976</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1344,40 +1296,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.3305804065723</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>24.2037277958985</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>26.7321483497697</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.4903869664333</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.1335764365157</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.1335764365157</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>28.2125562422133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1387,40 +1339,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.312370900151</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>25.8678328580983</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>28.5695786814336</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>29.3798335096</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.0673808741709</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>30.0673808741709</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>30.1517710518638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1430,40 +1382,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.2296139634634</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.5898844938982</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33.8390286903179</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>33.1690221680073</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>33.8845094513614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1472,42 +1424,18 @@
           <t>Metro BH1**</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>11.2959998172508</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.48751548332634</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7.26610251528838</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.5128086458014</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.65250640360976</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.65250640360976</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7.677250744111</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1515,42 +1443,18 @@
           <t>Amrun#</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>10.5475288945631</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8.292508748113621</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.76429976616739</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.58927504786007</v>
-      </c>
-      <c r="F26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="G26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="H26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9.79014696539549</v>
-      </c>
-      <c r="M26" t="n">
-        <v>9.79014696539549</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1559,40 +1463,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.6778074798545</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>12.446769824531</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>16.149950626733</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15.6350568495467</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>15.7284235775482</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>15.6290023550923</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.5295811326363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1602,40 +1506,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.133256032118391</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.43162588985703</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>8.4172018329206</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8.16757940231791</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.16917559955405</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.115068474547799</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>8.06096134954155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1644,42 +1548,18 @@
           <t>SMB Malapouya/Boké</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>21.1129833751495</v>
-      </c>
-      <c r="C29" t="n">
-        <v>15.582107578133</v>
-      </c>
-      <c r="D29" t="n">
-        <v>17.5990887674864</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18.2001182344754</v>
-      </c>
-      <c r="F29" t="n">
-        <v>18.6750054294642</v>
-      </c>
-      <c r="G29" t="n">
-        <v>18.6750054294642</v>
-      </c>
-      <c r="H29" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="J29" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="K29" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="L29" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="M29" t="n">
-        <v>18.7385802534729</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1688,40 +1568,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1731,40 +1611,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.2959998172508</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.48751548332634</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.26610251528838</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.5128086458014</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.65250640360976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.65250640360976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>7.677250744111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1773,42 +1653,18 @@
           <t>Metro BH1 Xinfa*</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>11.2959998172508</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.48751548332634</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.26610251528838</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.5128086458014</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7.65250640360976</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.65250640360976</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.677250744111</v>
-      </c>
-      <c r="M32" t="n">
-        <v>7.677250744111</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1817,40 +1673,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.9305803537702</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>15.4479212051765</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>17.4474279564678</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>18.0431424148783</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>18.5133446240869</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>18.5133446240869</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>18.5763777858255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1860,40 +1716,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1902,42 +1758,18 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1946,40 +1778,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1989,40 +1821,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2032,40 +1864,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2075,40 +1907,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2118,40 +1950,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2160,42 +1992,18 @@
           <t>SMB Santou-Houda</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>21.1129833751495</v>
-      </c>
-      <c r="C41" t="n">
-        <v>15.582107578133</v>
-      </c>
-      <c r="D41" t="n">
-        <v>17.5990887674864</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.2001182344754</v>
-      </c>
-      <c r="F41" t="n">
-        <v>18.6750054294642</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18.6750054294642</v>
-      </c>
-      <c r="H41" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="I41" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="J41" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="K41" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="L41" t="n">
-        <v>18.7385802534729</v>
-      </c>
-      <c r="M41" t="n">
-        <v>18.7385802534729</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2204,40 +2012,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.1129833751495</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>15.582107578133</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>17.5990887674864</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>18.2001182344754</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>18.6750054294642</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>18.7385802534729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2247,40 +2055,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.7525816357972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>21.8042004838132</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>25.6066357512228</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>25.0845237810656</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.7276268652164</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
